--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-regimentype.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-regimentype.xlsx
@@ -259,10 +259,10 @@
 </t>
   </si>
   <si>
-    <t>【仮】レジメン種別に関する情報</t>
-  </si>
-  <si>
-    <t>レジメン種別に関する情報を表現する拡張</t>
+    <t>レジメン種別</t>
+  </si>
+  <si>
+    <t>レジメン種別（e.g.,FOLFOX,FOLFIRI）に関する情報を表現する拡張</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-regimentype.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-regimentype.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>レジメン種別に関する情報を格納するためのExtension。</t>
+    <t>レジメン種別に関する情報を格納するためのExtension</t>
   </si>
   <si>
     <t>Purpose</t>
